--- a/tests/data/Trading_journal_07082017.xlsx
+++ b/tests/data/Trading_journal_07082017.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="143">
   <si>
     <t>Start of trade</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>H10</t>
-  </si>
-  <si>
-    <t>Bid and Ask spread induces the hit of the S/L</t>
   </si>
   <si>
     <t>Incorrectly placed the S/L. Did not respect the previous candle's low and the S/L was at the upper part of the support area</t>
@@ -458,10 +455,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="d/m/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -512,6 +509,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -548,19 +557,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -571,9 +586,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -603,7 +618,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -621,32 +636,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -976,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1044"/>
+  <dimension ref="A1:Z1043"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1470,36 +1491,36 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="A10" s="15">
-        <v>42839.5625</v>
+        <v>42844.371527777781</v>
       </c>
       <c r="B10" s="15">
-        <v>42839.906944444447</v>
+        <v>42844.538194444445</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10" s="17">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F10" s="17">
-        <v>0.69820000000000004</v>
+        <v>0.83720000000000006</v>
       </c>
       <c r="G10" s="17">
-        <v>0.70179999999999998</v>
+        <v>0.83389999999999997</v>
       </c>
       <c r="H10" s="22">
-        <v>-0.2122</v>
+        <v>-0.2165</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -1511,55 +1532,57 @@
         <v>57</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="S10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="23">
+        <v>13</v>
+      </c>
       <c r="U10" s="23" t="s">
         <v>29</v>
       </c>
       <c r="V10" s="23">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="W10" s="23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
     </row>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1">
+    <row r="11" spans="1:26">
       <c r="A11" s="15">
-        <v>42844.371527777781</v>
+        <v>42845.604166666664</v>
       </c>
       <c r="B11" s="15">
-        <v>42844.538194444445</v>
+        <v>42851.696527777778</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="17">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F11" s="17">
-        <v>0.83720000000000006</v>
+        <v>0.75307999999999997</v>
       </c>
       <c r="G11" s="17">
-        <v>0.83389999999999997</v>
+        <v>0.74550000000000005</v>
       </c>
       <c r="H11" s="22">
-        <v>-0.2165</v>
+        <v>-0.252</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -1570,23 +1593,21 @@
       <c r="Q11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="24" t="s">
+      <c r="R11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="S11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" s="23">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T11" s="21"/>
       <c r="U11" s="23" t="s">
         <v>29</v>
       </c>
       <c r="V11" s="23">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="W11" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
@@ -1594,34 +1615,32 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="15">
-        <v>42845.604166666664</v>
+        <v>42852.318055555559</v>
       </c>
       <c r="B12" s="15">
-        <v>42851.696527777778</v>
+        <v>42858.447222222225</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E12" s="17">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F12" s="17">
-        <v>0.75307999999999997</v>
+        <v>0.84560000000000002</v>
       </c>
       <c r="G12" s="17">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="H12" s="22">
-        <v>-0.252</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I12" s="19"/>
       <c r="J12" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -1633,53 +1652,45 @@
         <v>59</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="16" t="b">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S12" s="16"/>
       <c r="T12" s="21"/>
-      <c r="U12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="W12" s="23" t="b">
-        <v>1</v>
-      </c>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="15">
-        <v>42852.318055555559</v>
+        <v>42856.750694444447</v>
       </c>
       <c r="B13" s="15">
-        <v>42858.447222222225</v>
+        <v>42857.989583333336</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="17">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F13" s="17">
-        <v>0.84560000000000002</v>
+        <v>1.0886</v>
       </c>
       <c r="G13" s="17">
-        <v>0.84519999999999995</v>
+        <v>1.0827</v>
       </c>
       <c r="H13" s="18">
-        <v>1.2E-2</v>
+        <v>0.2359</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -1687,13 +1698,11 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="19"/>
-      <c r="Q13" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q13" s="20"/>
       <c r="R13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="16"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -1704,32 +1713,32 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="15">
-        <v>42856.750694444447</v>
+        <v>42858.318055555559</v>
       </c>
       <c r="B14" s="15">
-        <v>42857.989583333336</v>
+        <v>42860.313194444447</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="17">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F14" s="17">
-        <v>1.0886</v>
+        <v>83.95</v>
       </c>
       <c r="G14" s="17">
-        <v>1.0827</v>
+        <v>82.86</v>
       </c>
       <c r="H14" s="18">
-        <v>0.2359</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -1752,32 +1761,34 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="15">
-        <v>42858.318055555559</v>
+        <v>42860.166979166665</v>
       </c>
       <c r="B15" s="15">
-        <v>42860.313194444447</v>
+        <v>42860.693749999999</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E15" s="17">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F15" s="17">
-        <v>83.95</v>
+        <v>0.68779999999999997</v>
       </c>
       <c r="G15" s="17">
-        <v>82.86</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="H15" s="18">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I15" s="19"/>
+        <v>0.20760000000000001</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="J15" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -1785,97 +1796,91 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
+      <c r="Q15" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="R15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="S15" s="16"/>
       <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23" t="b">
+        <v>1</v>
+      </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="15">
-        <v>42860.166979166665</v>
-      </c>
-      <c r="B16" s="15">
-        <v>42860.693749999999</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="A16" s="4">
+        <v>42863.401388888888</v>
+      </c>
+      <c r="B16" s="4">
+        <v>42863.674305555556</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="17">
-        <v>65</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.68779999999999997</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0.69189999999999996</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0.20760000000000001</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="16"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
+      <c r="E16" s="25">
+        <v>50</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.2606</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="4">
-        <v>42863.401388888888</v>
+        <v>42863.55</v>
       </c>
       <c r="B17" s="4">
-        <v>42863.674305555556</v>
+        <v>42864.290972222225</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E17" s="25">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F17" s="25">
-        <v>0.99080000000000001</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="G17" s="25">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H17" s="26">
-        <v>0.2606</v>
+        <v>146.84</v>
+      </c>
+      <c r="H17" s="30">
+        <v>-0.2167</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
@@ -1897,166 +1902,180 @@
       <c r="Z17" s="29"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="4">
-        <v>42863.55</v>
-      </c>
-      <c r="B18" s="4">
-        <v>42864.290972222225</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="31">
+        <v>42865.386805555558</v>
+      </c>
+      <c r="B18" s="31">
+        <v>42865.654861111114</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="33">
+        <v>69</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1.0051000000000001</v>
+      </c>
+      <c r="G18" s="33">
+        <v>1.0091000000000001</v>
+      </c>
+      <c r="H18" s="34">
+        <v>-0.20730000000000001</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="37">
+        <v>76</v>
+      </c>
+      <c r="U18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="37">
+        <v>1</v>
+      </c>
+      <c r="W18" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="15">
+        <v>42866.529861111114</v>
+      </c>
+      <c r="B19" s="15">
+        <v>42872.598611111112</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="25">
-        <v>28</v>
-      </c>
-      <c r="F18" s="25">
-        <v>145.69999999999999</v>
-      </c>
-      <c r="G18" s="25">
-        <v>146.84</v>
-      </c>
-      <c r="H18" s="30">
-        <v>-0.2167</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="31">
-        <v>42865.386805555558</v>
-      </c>
-      <c r="B19" s="31">
-        <v>42865.654861111114</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="32" t="s">
+      <c r="E19" s="17">
         <v>18</v>
       </c>
-      <c r="E19" s="33">
-        <v>69</v>
-      </c>
-      <c r="F19" s="33">
-        <v>1.0051000000000001</v>
-      </c>
-      <c r="G19" s="33">
-        <v>1.0091000000000001</v>
-      </c>
-      <c r="H19" s="34">
-        <v>-0.20730000000000001</v>
-      </c>
-      <c r="I19" s="32" t="s">
+      <c r="F19" s="17">
+        <v>146.6</v>
+      </c>
+      <c r="G19" s="17">
+        <v>144.86000000000001</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.2162</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="T19" s="37">
-        <v>76</v>
-      </c>
-      <c r="U19" s="37" t="s">
+      <c r="J19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="16">
+        <v>148.21700000000001</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="37">
-        <v>1</v>
-      </c>
-      <c r="W19" s="37" t="b">
+      <c r="V19" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="W19" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="15">
-        <v>42866.529861111114</v>
+        <v>42866.715277777781</v>
       </c>
       <c r="B20" s="15">
-        <v>42872.598611111112</v>
+        <v>42867.693055555559</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="17">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F20" s="17">
-        <v>146.6</v>
+        <v>1.0061</v>
       </c>
       <c r="G20" s="17">
-        <v>144.86000000000001</v>
+        <v>1.0004</v>
       </c>
       <c r="H20" s="18">
-        <v>0.2162</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K20" s="16">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="19"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="16">
-        <v>148.21700000000001</v>
-      </c>
+      <c r="O20" s="20"/>
       <c r="P20" s="19"/>
-      <c r="Q20" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q20" s="20"/>
       <c r="R20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="S20" s="16"/>
+      <c r="S20" s="20"/>
       <c r="T20" s="21"/>
       <c r="U20" s="23" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V20" s="23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W20" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
@@ -2064,37 +2083,37 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="15">
-        <v>42866.715277777781</v>
+        <v>42871.670138888891</v>
       </c>
       <c r="B21" s="15">
-        <v>42867.693055555559</v>
+        <v>42872.399305555555</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="17">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F21" s="17">
-        <v>1.0061</v>
+        <v>84</v>
       </c>
       <c r="G21" s="17">
-        <v>1.0004</v>
+        <v>83.21</v>
       </c>
       <c r="H21" s="18">
-        <v>0.28860000000000002</v>
+        <v>0.2722</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="16">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="19"/>
@@ -2108,82 +2127,84 @@
       <c r="S21" s="20"/>
       <c r="T21" s="21"/>
       <c r="U21" s="23" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="V21" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W21" s="23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="15">
-        <v>42871.670138888891</v>
-      </c>
-      <c r="B22" s="15">
-        <v>42872.399305555555</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="A22" s="31">
+        <v>42873.309027777781</v>
+      </c>
+      <c r="B22" s="31">
+        <v>42874.310416666667</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="17">
-        <v>50</v>
-      </c>
-      <c r="F22" s="17">
-        <v>84</v>
-      </c>
-      <c r="G22" s="17">
-        <v>83.21</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0.2722</v>
-      </c>
-      <c r="I22" s="16" t="s">
+      <c r="E22" s="33">
+        <v>66</v>
+      </c>
+      <c r="F22" s="33">
+        <v>1.1133</v>
+      </c>
+      <c r="G22" s="33">
+        <v>1.1123000000000001</v>
+      </c>
+      <c r="H22" s="39">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I22" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="16">
-        <v>1.72</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="S22" s="20"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="23" t="s">
+      <c r="J22" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="32">
+        <v>1.52</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="38"/>
+      <c r="U22" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="V22" s="23">
-        <v>6</v>
-      </c>
-      <c r="W22" s="23" t="b">
+      <c r="V22" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="W22" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="31">
-        <v>42873.309027777781</v>
+        <v>42874.750694444447</v>
       </c>
       <c r="B23" s="31">
-        <v>42874.310416666667</v>
+        <v>42877.488888888889</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>63</v>
@@ -2192,26 +2213,22 @@
         <v>18</v>
       </c>
       <c r="E23" s="33">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F23" s="33">
-        <v>1.1133</v>
+        <v>1.0904</v>
       </c>
       <c r="G23" s="33">
-        <v>1.1123000000000001</v>
-      </c>
-      <c r="H23" s="39">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>16</v>
-      </c>
+        <v>1.0905</v>
+      </c>
+      <c r="H23" s="34">
+        <v>-9.4999999999999998E-3</v>
+      </c>
+      <c r="I23" s="36"/>
       <c r="J23" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="32">
-        <v>1.52</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K23" s="35"/>
       <c r="L23" s="35"/>
       <c r="M23" s="36"/>
       <c r="N23" s="35"/>
@@ -2219,53 +2236,45 @@
       <c r="P23" s="36"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S23" s="32" t="b">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S23" s="35"/>
       <c r="T23" s="38"/>
-      <c r="U23" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="V23" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="W23" s="37" t="b">
-        <v>0</v>
-      </c>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="31">
-        <v>42874.750694444447</v>
+        <v>42877.677083333336</v>
       </c>
       <c r="B24" s="31">
-        <v>42877.488888888889</v>
+        <v>42879.794444444444</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E24" s="33">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F24" s="33">
-        <v>1.0904</v>
+        <v>0.9738</v>
       </c>
       <c r="G24" s="33">
-        <v>1.0905</v>
-      </c>
-      <c r="H24" s="34">
-        <v>-9.4999999999999998E-3</v>
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="H24" s="39">
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
@@ -2273,11 +2282,13 @@
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
       <c r="P24" s="36"/>
-      <c r="Q24" s="35"/>
+      <c r="Q24" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="R24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S24" s="35"/>
+      <c r="S24" s="32"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
@@ -2286,90 +2297,94 @@
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
       <c r="A25" s="31">
-        <v>42877.677083333336</v>
+        <v>42880.401388888888</v>
       </c>
       <c r="B25" s="31">
-        <v>42879.794444444444</v>
+        <v>42881.133333333331</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E25" s="33">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F25" s="33">
-        <v>0.9738</v>
+        <v>0.74760000000000004</v>
       </c>
       <c r="G25" s="33">
-        <v>0.97389999999999999</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="H25" s="39">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="I25" s="36"/>
+        <v>0.2321</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="J25" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="K25" s="32">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="L25" s="35"/>
       <c r="M25" s="36"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
       <c r="P25" s="36"/>
-      <c r="Q25" s="32" t="s">
+      <c r="Q25" s="35"/>
+      <c r="R25" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="R25" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="S25" s="32"/>
+      <c r="S25" s="35"/>
       <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
+      <c r="U25" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="V25" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="W25" s="37" t="b">
+        <v>0</v>
+      </c>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
     </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:26">
       <c r="A26" s="31">
-        <v>42880.401388888888</v>
+        <v>42883.98541666667</v>
       </c>
       <c r="B26" s="31">
-        <v>42881.133333333331</v>
+        <v>42885.37222222222</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="33">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F26" s="33">
-        <v>0.74760000000000004</v>
+        <v>0.87150000000000005</v>
       </c>
       <c r="G26" s="33">
-        <v>0.74299999999999999</v>
+        <v>0.86660000000000004</v>
       </c>
       <c r="H26" s="39">
-        <v>0.2321</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>16</v>
-      </c>
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="I26" s="36"/>
       <c r="J26" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="32">
-        <v>1.1399999999999999</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K26" s="35"/>
       <c r="L26" s="35"/>
       <c r="M26" s="36"/>
       <c r="N26" s="35"/>
@@ -2377,7 +2392,7 @@
       <c r="P26" s="36"/>
       <c r="Q26" s="35"/>
       <c r="R26" s="32" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="S26" s="35"/>
       <c r="T26" s="38"/>
@@ -2385,53 +2400,55 @@
         <v>17</v>
       </c>
       <c r="V26" s="37">
-        <v>3.5</v>
-      </c>
-      <c r="W26" s="37" t="b">
-        <v>0</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="W26" s="38"/>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="31">
-        <v>42883.98541666667</v>
+        <v>42885.369444444441</v>
       </c>
       <c r="B27" s="31">
-        <v>42885.37222222222</v>
+        <v>42885.613194444442</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E27" s="33">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="F27" s="33">
-        <v>0.87150000000000005</v>
+        <v>0.7056</v>
       </c>
       <c r="G27" s="33">
-        <v>0.86660000000000004</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="H27" s="39">
-        <v>0.27379999999999999</v>
-      </c>
-      <c r="I27" s="36"/>
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="J27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="35"/>
+      <c r="K27" s="32">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="L27" s="35"/>
       <c r="M27" s="36"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="35"/>
-      <c r="R27" s="32" t="s">
-        <v>33</v>
+      <c r="R27" s="40" t="s">
+        <v>14</v>
       </c>
       <c r="S27" s="35"/>
       <c r="T27" s="38"/>
@@ -2439,63 +2456,65 @@
         <v>17</v>
       </c>
       <c r="V27" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="W27" s="38"/>
+        <v>3</v>
+      </c>
+      <c r="W27" s="37" t="b">
+        <v>0</v>
+      </c>
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="31">
-        <v>42885.369444444441</v>
-      </c>
-      <c r="B28" s="31">
-        <v>42885.613194444442</v>
+        <v>42886.42083333333</v>
+      </c>
+      <c r="B28" s="41">
+        <v>42886.604166666664</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="33">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="F28" s="33">
-        <v>0.7056</v>
+        <v>82.52</v>
       </c>
       <c r="G28" s="33">
-        <v>0.70809999999999995</v>
-      </c>
-      <c r="H28" s="39">
-        <v>0.24940000000000001</v>
+        <v>82.15</v>
+      </c>
+      <c r="H28" s="34">
+        <v>-0.2152</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="32">
-        <v>1.1299999999999999</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K28" s="35"/>
       <c r="L28" s="35"/>
       <c r="M28" s="36"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
       <c r="P28" s="36"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="S28" s="35"/>
+      <c r="Q28" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="R28" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="32"/>
       <c r="T28" s="38"/>
       <c r="U28" s="37" t="s">
         <v>17</v>
       </c>
       <c r="V28" s="37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W28" s="37" t="b">
         <v>0</v>
@@ -2506,34 +2525,32 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="31">
-        <v>42886.42083333333</v>
-      </c>
-      <c r="B29" s="41">
-        <v>42886.604166666664</v>
+        <v>42886.652777777781</v>
+      </c>
+      <c r="B29" s="31">
+        <v>42887.329861111109</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E29" s="33">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F29" s="33">
-        <v>82.52</v>
+        <v>0.871</v>
       </c>
       <c r="G29" s="33">
-        <v>82.15</v>
+        <v>0.87480000000000002</v>
       </c>
       <c r="H29" s="34">
-        <v>-0.2152</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>16</v>
-      </c>
+        <v>-0.2019</v>
+      </c>
+      <c r="I29" s="36"/>
       <c r="J29" s="32" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
@@ -2541,68 +2558,70 @@
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
       <c r="P29" s="36"/>
-      <c r="Q29" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="Q29" s="38"/>
       <c r="R29" s="32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S29" s="32"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="V29" s="37">
-        <v>0</v>
-      </c>
-      <c r="W29" s="37" t="b">
-        <v>0</v>
-      </c>
+      <c r="T29" s="32"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
       <c r="X29" s="38"/>
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="31">
-        <v>42886.652777777781</v>
+        <v>42887.390277777777</v>
       </c>
       <c r="B30" s="31">
-        <v>42887.329861111109</v>
+        <v>42888.5625</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="33">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F30" s="33">
-        <v>0.871</v>
+        <v>1.1229</v>
       </c>
       <c r="G30" s="33">
-        <v>0.87480000000000002</v>
+        <v>1.1231</v>
       </c>
       <c r="H30" s="34">
-        <v>-0.2019</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="36"/>
+        <v>19</v>
+      </c>
+      <c r="K30" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="L30" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>70</v>
+      </c>
       <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
+      <c r="O30" s="32" t="s">
+        <v>69</v>
+      </c>
       <c r="P30" s="36"/>
-      <c r="Q30" s="38"/>
+      <c r="Q30" s="32" t="s">
+        <v>71</v>
+      </c>
       <c r="R30" s="32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
+      <c r="T30" s="38"/>
       <c r="U30" s="38"/>
       <c r="V30" s="38"/>
       <c r="W30" s="38"/>
@@ -2612,241 +2631,243 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="31">
-        <v>42887.390277777777</v>
+        <v>42891.374305555553</v>
       </c>
       <c r="B31" s="31">
-        <v>42888.5625</v>
+        <v>42891.477083333331</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="33">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F31" s="33">
-        <v>1.1229</v>
+        <v>0.87460000000000004</v>
       </c>
       <c r="G31" s="33">
-        <v>1.1231</v>
-      </c>
-      <c r="H31" s="34">
-        <v>-1.1900000000000001E-2</v>
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="H31" s="39">
+        <v>0.33200000000000002</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="32" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K31" s="33">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="L31" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="N31" s="35"/>
+        <v>72</v>
+      </c>
+      <c r="M31" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="63"/>
       <c r="O31" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="36"/>
       <c r="Q31" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R31" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="S31" s="32"/>
+        <v>74</v>
+      </c>
+      <c r="R31" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31" s="35"/>
       <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
+      <c r="U31" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" s="37">
+        <v>3</v>
+      </c>
+      <c r="W31" s="37" t="b">
+        <v>0</v>
+      </c>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
       <c r="Z31" s="38"/>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="31">
-        <v>42891.374305555553</v>
+        <v>42891.370833333334</v>
       </c>
       <c r="B32" s="31">
-        <v>42891.477083333331</v>
+        <v>42893.30972222222</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="33">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="F32" s="33">
-        <v>0.87460000000000004</v>
+        <v>1.3469</v>
       </c>
       <c r="G32" s="33">
-        <v>0.87129999999999996</v>
+        <v>1.3455999999999999</v>
       </c>
       <c r="H32" s="39">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="I32" s="36"/>
+        <v>0.03</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="J32" s="32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K32" s="33">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="L32" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="N32" s="63"/>
+        <v>69</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="O32" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="R32" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="V32" s="37">
-        <v>3</v>
-      </c>
-      <c r="W32" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
+        <v>78</v>
+      </c>
+      <c r="R32" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" s="32"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="V32" s="43">
+        <v>11</v>
+      </c>
+      <c r="W32" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="31">
-        <v>42891.370833333334</v>
+        <v>42894.313194444447</v>
       </c>
       <c r="B33" s="31">
-        <v>42893.30972222222</v>
+        <v>42894.915972222225</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="33">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F33" s="33">
-        <v>1.3469</v>
+        <v>1.0474000000000001</v>
       </c>
       <c r="G33" s="33">
-        <v>1.3455999999999999</v>
-      </c>
-      <c r="H33" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>21</v>
-      </c>
+        <v>1.0474000000000001</v>
+      </c>
+      <c r="H33" s="33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="36"/>
       <c r="J33" s="32" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K33" s="33">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="L33" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P33" s="36"/>
       <c r="Q33" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="R33" s="43" t="s">
-        <v>44</v>
+      <c r="R33" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="S33" s="32"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="V33" s="43">
-        <v>11</v>
-      </c>
-      <c r="W33" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="31">
-        <v>42894.313194444447</v>
+        <v>42894.955555555556</v>
       </c>
       <c r="B34" s="31">
-        <v>42894.915972222225</v>
+        <v>42898.383333333331</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="33">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F34" s="33">
-        <v>1.0474000000000001</v>
+        <v>0.71960000000000002</v>
       </c>
       <c r="G34" s="33">
-        <v>1.0474000000000001</v>
-      </c>
-      <c r="H34" s="33">
-        <v>0</v>
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="H34" s="39">
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="32" t="s">
         <v>13</v>
       </c>
       <c r="K34" s="33">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="L34" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P34" s="36"/>
       <c r="Q34" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R34" s="32" t="s">
         <v>33</v>
@@ -2862,54 +2883,56 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="31">
-        <v>42894.955555555556</v>
+        <v>42895.664583333331</v>
       </c>
       <c r="B35" s="31">
         <v>42898.383333333331</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="33">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F35" s="33">
-        <v>0.71960000000000002</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="G35" s="33">
-        <v>0.71850000000000003</v>
+        <v>0.96779999999999999</v>
       </c>
       <c r="H35" s="39">
-        <v>7.8899999999999998E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="32" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K35" s="33">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L35" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P35" s="36"/>
+        <v>69</v>
+      </c>
+      <c r="P35" s="32" t="s">
+        <v>82</v>
+      </c>
       <c r="Q35" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R35" s="32" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="S35" s="32"/>
       <c r="T35" s="38"/>
@@ -2922,13 +2945,13 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="31">
-        <v>42895.664583333331</v>
+        <v>42898.622916666667</v>
       </c>
       <c r="B36" s="31">
-        <v>42898.383333333331</v>
+        <v>42899.353472222225</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>18</v>
@@ -2937,41 +2960,41 @@
         <v>100</v>
       </c>
       <c r="F36" s="33">
-        <v>0.97019999999999995</v>
+        <v>1.1206</v>
       </c>
       <c r="G36" s="33">
-        <v>0.96779999999999999</v>
+        <v>1.1205000000000001</v>
       </c>
       <c r="H36" s="39">
-        <v>0.19400000000000001</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="32" t="s">
         <v>27</v>
       </c>
       <c r="K36" s="33">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="L36" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N36" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O36" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P36" s="32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q36" s="32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R36" s="32" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="S36" s="32"/>
       <c r="T36" s="38"/>
@@ -2983,117 +3006,117 @@
       <c r="Z36" s="38"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="31">
-        <v>42898.622916666667</v>
-      </c>
-      <c r="B37" s="31">
-        <v>42899.353472222225</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="32" t="s">
+      <c r="A37" s="4">
+        <v>42898.68472222222</v>
+      </c>
+      <c r="B37" s="4">
+        <v>42899.500694444447</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="33">
-        <v>100</v>
-      </c>
-      <c r="F37" s="33">
-        <v>1.1206</v>
-      </c>
-      <c r="G37" s="33">
-        <v>1.1205000000000001</v>
-      </c>
-      <c r="H37" s="39">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="32" t="s">
+      <c r="E37" s="25">
+        <v>121</v>
+      </c>
+      <c r="F37" s="25">
+        <v>1.0468999999999999</v>
+      </c>
+      <c r="G37" s="25">
+        <v>1.0442</v>
+      </c>
+      <c r="H37" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K37" s="33">
-        <v>1.23</v>
-      </c>
-      <c r="L37" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="N37" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="O37" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P37" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q37" s="32" t="s">
+      <c r="K37" s="25">
+        <v>1.07</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="R37" s="32" t="s">
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S37" s="32"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="4">
-        <v>42898.68472222222</v>
+        <v>42899.770138888889</v>
       </c>
       <c r="B38" s="4">
-        <v>42899.500694444447</v>
+        <v>42900.349305555559</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="25">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F38" s="25">
-        <v>1.0468999999999999</v>
+        <v>83.073999999999998</v>
       </c>
       <c r="G38" s="25">
-        <v>1.0442</v>
-      </c>
-      <c r="H38" s="26">
-        <v>0.19</v>
+        <v>83.347999999999999</v>
+      </c>
+      <c r="H38" s="30">
+        <v>-0.21490000000000001</v>
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K38" s="25">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q38" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="R38" s="12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="S38" s="12"/>
       <c r="T38" s="29"/>
@@ -3106,56 +3129,54 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="4">
-        <v>42899.770138888889</v>
+        <v>42900.710416666669</v>
       </c>
       <c r="B39" s="4">
-        <v>42900.349305555559</v>
+        <v>42901.5</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E39" s="25">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="F39" s="25">
-        <v>83.073999999999998</v>
+        <v>1.6929000000000001</v>
       </c>
       <c r="G39" s="25">
-        <v>83.347999999999999</v>
-      </c>
-      <c r="H39" s="30">
-        <v>-0.21490000000000001</v>
+        <v>1.696</v>
+      </c>
+      <c r="H39" s="26">
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K39" s="25">
-        <v>1.21</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P39" s="12" t="s">
-        <v>90</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P39" s="27"/>
       <c r="Q39" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="S39" s="12"/>
       <c r="T39" s="29"/>
@@ -3168,56 +3189,56 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="4">
-        <v>42900.710416666669</v>
+        <v>42901.96875</v>
       </c>
       <c r="B40" s="4">
-        <v>42901.5</v>
+        <v>42902.040972222225</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E40" s="25">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="F40" s="25">
-        <v>1.6929000000000001</v>
+        <v>141.37</v>
       </c>
       <c r="G40" s="25">
-        <v>1.696</v>
-      </c>
-      <c r="H40" s="26">
-        <v>4.8099999999999997E-2</v>
+        <v>141.62</v>
+      </c>
+      <c r="H40" s="30">
+        <v>-0.22950000000000001</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K40" s="25">
-        <v>1.1100000000000001</v>
+        <v>2.69</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="12" t="s">
-        <v>94</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q40" s="28"/>
       <c r="R40" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="S40" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="S40" s="28"/>
       <c r="T40" s="29"/>
       <c r="U40" s="29"/>
       <c r="V40" s="29"/>
@@ -3228,320 +3249,320 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="4">
-        <v>42901.96875</v>
+        <v>42902.311805555553</v>
       </c>
       <c r="B41" s="4">
-        <v>42902.040972222225</v>
+        <v>42902.534722222219</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E41" s="25">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F41" s="25">
-        <v>141.37</v>
+        <v>1.1158999999999999</v>
       </c>
       <c r="G41" s="25">
-        <v>141.62</v>
-      </c>
-      <c r="H41" s="30">
-        <v>-0.22950000000000001</v>
-      </c>
-      <c r="I41" s="27"/>
+        <v>1.1161000000000001</v>
+      </c>
+      <c r="H41" s="26">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="J41" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K41" s="25">
-        <v>2.69</v>
+        <v>1.26</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P41" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S41" s="28"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
+      <c r="R41" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="S41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" s="46">
+        <v>110</v>
+      </c>
+      <c r="U41" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="V41" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="W41" s="46" t="b">
+        <v>1</v>
+      </c>
       <c r="X41" s="29"/>
       <c r="Y41" s="29"/>
       <c r="Z41" s="29"/>
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="4">
-        <v>42902.311805555553</v>
+        <v>42907.3125</v>
       </c>
       <c r="B42" s="4">
-        <v>42902.534722222219</v>
+        <v>42909.393055555556</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E42" s="25">
-        <v>92</v>
+        <v>500</v>
       </c>
       <c r="F42" s="25">
-        <v>1.1158999999999999</v>
+        <v>111.23</v>
       </c>
       <c r="G42" s="25">
-        <v>1.1161000000000001</v>
-      </c>
-      <c r="H42" s="26">
-        <v>1.37E-2</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>111.23</v>
+      </c>
+      <c r="H42" s="30">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="I42" s="27"/>
       <c r="J42" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K42" s="25">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P42" s="27"/>
       <c r="Q42" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="R42" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="S42" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T42" s="46">
-        <v>110</v>
-      </c>
-      <c r="U42" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="V42" s="46">
-        <v>1.5</v>
-      </c>
-      <c r="W42" s="46" t="b">
-        <v>1</v>
-      </c>
+      <c r="R42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
       <c r="X42" s="29"/>
       <c r="Y42" s="29"/>
       <c r="Z42" s="29"/>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="4">
-        <v>42907.3125</v>
+        <v>42907.722916666666</v>
       </c>
       <c r="B43" s="4">
-        <v>42909.393055555556</v>
+        <v>42908.645833333336</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E43" s="25">
-        <v>500</v>
+        <v>1560</v>
       </c>
       <c r="F43" s="25">
-        <v>111.23</v>
+        <v>1.0859000000000001</v>
       </c>
       <c r="G43" s="25">
-        <v>111.23</v>
+        <v>1.0842000000000001</v>
       </c>
       <c r="H43" s="30">
-        <v>-7.1999999999999998E-3</v>
-      </c>
-      <c r="I43" s="27"/>
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="J43" s="12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K43" s="25">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P43" s="27"/>
       <c r="Q43" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
+        <v>76</v>
+      </c>
+      <c r="R43" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" s="46">
+        <v>105</v>
+      </c>
+      <c r="U43" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="V43" s="46">
+        <v>7.5</v>
+      </c>
+      <c r="W43" s="46" t="b">
+        <v>1</v>
+      </c>
       <c r="X43" s="29"/>
       <c r="Y43" s="29"/>
       <c r="Z43" s="29"/>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="4">
-        <v>42907.722916666666</v>
+        <v>42912.316666666666</v>
       </c>
       <c r="B44" s="4">
-        <v>42908.645833333336</v>
+        <v>42913.383333333331</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="25">
-        <v>1560</v>
+        <v>89</v>
       </c>
       <c r="F44" s="25">
-        <v>1.0859000000000001</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="G44" s="25">
-        <v>1.0842000000000001</v>
-      </c>
-      <c r="H44" s="30">
-        <v>-2.1800000000000002</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="H44" s="26">
+        <v>1.01E-2</v>
+      </c>
+      <c r="I44" s="27"/>
       <c r="J44" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K44" s="25">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M44" s="27"/>
       <c r="N44" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P44" s="27"/>
       <c r="Q44" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="R44" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="S44" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T44" s="46">
-        <v>105</v>
-      </c>
-      <c r="U44" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="V44" s="46">
-        <v>7.5</v>
-      </c>
-      <c r="W44" s="46" t="b">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" s="12"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
       <c r="X44" s="29"/>
       <c r="Y44" s="29"/>
       <c r="Z44" s="29"/>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="4">
-        <v>42912.316666666666</v>
+        <v>42913.322222222225</v>
       </c>
       <c r="B45" s="4">
-        <v>42913.383333333331</v>
+        <v>42913.4375</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E45" s="25">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F45" s="25">
-        <v>0.97019999999999995</v>
+        <v>142.16</v>
       </c>
       <c r="G45" s="25">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="H45" s="26">
-        <v>1.01E-2</v>
+        <v>142.62</v>
+      </c>
+      <c r="H45" s="30">
+        <v>-0.2024</v>
       </c>
       <c r="I45" s="27"/>
       <c r="J45" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K45" s="25">
-        <v>1.56</v>
+        <v>3.12</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M45" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="N45" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P45" s="27"/>
       <c r="Q45" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="R45" s="12" t="s">
+      <c r="R45" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="S45" s="12"/>
+      <c r="S45" s="63"/>
       <c r="T45" s="29"/>
       <c r="U45" s="29"/>
       <c r="V45" s="29"/>
@@ -3552,56 +3573,58 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="4">
-        <v>42913.322222222225</v>
+        <v>42914.571527777778</v>
       </c>
       <c r="B46" s="4">
-        <v>42913.4375</v>
+        <v>42914.979861111111</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="25">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F46" s="25">
-        <v>142.16</v>
+        <v>126.9</v>
       </c>
       <c r="G46" s="25">
-        <v>142.62</v>
+        <v>127.91</v>
       </c>
       <c r="H46" s="30">
-        <v>-0.2024</v>
+        <v>-0.20730000000000001</v>
       </c>
       <c r="I46" s="27"/>
       <c r="J46" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K46" s="25">
-        <v>3.12</v>
+        <v>1.42</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P46" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="Q46" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="R46" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="R46" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S46" s="63"/>
+      <c r="S46" s="27"/>
       <c r="T46" s="29"/>
       <c r="U46" s="29"/>
       <c r="V46" s="29"/>
@@ -3612,127 +3635,137 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="4">
-        <v>42914.571527777778</v>
+        <v>42916.310416666667</v>
       </c>
       <c r="B47" s="4">
-        <v>42914.979861111111</v>
+        <v>42920.234027777777</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="25">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F47" s="25">
-        <v>126.9</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="G47" s="25">
-        <v>127.91</v>
-      </c>
-      <c r="H47" s="30">
-        <v>-0.20730000000000001</v>
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="H47" s="26">
+        <v>0.4501</v>
       </c>
       <c r="I47" s="27"/>
       <c r="J47" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K47" s="25">
-        <v>1.42</v>
+        <v>2.11</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>106</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P47" s="27"/>
       <c r="Q47" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="R47" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="27"/>
+      <c r="R47" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="S47" s="12"/>
       <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
+      <c r="U47" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="V47" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="W47" s="46" t="b">
+        <v>0</v>
+      </c>
       <c r="X47" s="29"/>
       <c r="Y47" s="29"/>
       <c r="Z47" s="29"/>
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="4">
-        <v>42916.310416666667</v>
+        <v>42920.951388888891</v>
       </c>
       <c r="B48" s="4">
-        <v>42920.234027777777</v>
+        <v>42921.497916666667</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E48" s="25">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F48" s="25">
-        <v>0.76880000000000004</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="G48" s="25">
-        <v>0.76280000000000003</v>
-      </c>
-      <c r="H48" s="26">
-        <v>0.4501</v>
-      </c>
-      <c r="I48" s="27"/>
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="H48" s="30">
+        <v>-0.21260000000000001</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="J48" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K48" s="25">
-        <v>2.11</v>
+        <v>1.38</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P48" s="27"/>
       <c r="Q48" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="R48" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="S48" s="12"/>
-      <c r="T48" s="29"/>
+      <c r="R48" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T48" s="46">
+        <v>170</v>
+      </c>
       <c r="U48" s="46" t="s">
         <v>17</v>
       </c>
       <c r="V48" s="46">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="W48" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="29"/>
       <c r="Y48" s="29"/>
@@ -3740,62 +3773,62 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="4">
-        <v>42920.951388888891</v>
+        <v>42921.962500000001</v>
       </c>
       <c r="B49" s="4">
-        <v>42921.497916666667</v>
+        <v>42927.460416666669</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E49" s="25">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F49" s="25">
-        <v>0.76180000000000003</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="G49" s="25">
-        <v>0.75880000000000003</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="H49" s="30">
-        <v>-0.21260000000000001</v>
+        <v>-0.22170000000000001</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K49" s="25">
         <v>1.38</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P49" s="27"/>
       <c r="Q49" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R49" s="45" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="S49" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T49" s="46">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="U49" s="46" t="s">
         <v>17</v>
@@ -3804,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="W49" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="29"/>
       <c r="Y49" s="29"/>
@@ -3812,196 +3845,196 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="4">
-        <v>42921.962500000001</v>
+        <v>42923.316666666666</v>
       </c>
       <c r="B50" s="4">
-        <v>42927.460416666669</v>
+        <v>42927.303472222222</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="25">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F50" s="25">
-        <v>0.96340000000000003</v>
+        <v>1.5026999999999999</v>
       </c>
       <c r="G50" s="25">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="H50" s="30">
-        <v>-0.22170000000000001</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>1.4948999999999999</v>
+      </c>
+      <c r="H50" s="26">
+        <v>0.307</v>
+      </c>
+      <c r="I50" s="27"/>
       <c r="J50" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K50" s="25">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P50" s="27"/>
       <c r="Q50" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="R50" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T50" s="46">
-        <v>90</v>
-      </c>
-      <c r="U50" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="V50" s="46">
-        <v>1</v>
-      </c>
-      <c r="W50" s="46" t="b">
-        <v>0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="R50" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="S50" s="27"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
       <c r="X50" s="29"/>
       <c r="Y50" s="29"/>
       <c r="Z50" s="29"/>
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="4">
-        <v>42923.316666666666</v>
+        <v>42927.719444444447</v>
       </c>
       <c r="B51" s="4">
-        <v>42927.303472222222</v>
+        <v>42928.161805555559</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="25">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F51" s="25">
-        <v>1.5026999999999999</v>
+        <v>114.1</v>
       </c>
       <c r="G51" s="25">
-        <v>1.4948999999999999</v>
+        <v>113.51</v>
       </c>
       <c r="H51" s="26">
-        <v>0.307</v>
-      </c>
-      <c r="I51" s="27"/>
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="J51" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K51" s="25">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P51" s="27"/>
       <c r="Q51" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R51" s="47" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="S51" s="27"/>
       <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
+      <c r="U51" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="V51" s="46">
+        <v>6</v>
+      </c>
+      <c r="W51" s="46" t="b">
+        <v>0</v>
+      </c>
       <c r="X51" s="29"/>
       <c r="Y51" s="29"/>
       <c r="Z51" s="29"/>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="4">
-        <v>42927.719444444447</v>
+        <v>42930.504861111112</v>
       </c>
       <c r="B52" s="4">
-        <v>42928.161805555559</v>
+        <v>42934.938888888886</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="25">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F52" s="25">
-        <v>114.1</v>
+        <v>88.8</v>
       </c>
       <c r="G52" s="25">
-        <v>113.51</v>
+        <v>88.74</v>
       </c>
       <c r="H52" s="26">
-        <v>0.28989999999999999</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K52" s="25">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P52" s="27"/>
       <c r="Q52" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="R52" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="S52" s="27"/>
-      <c r="T52" s="29"/>
+      <c r="R52" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S52" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" s="46">
+        <v>630</v>
+      </c>
       <c r="U52" s="46" t="s">
         <v>29</v>
       </c>
       <c r="V52" s="46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W52" s="46" t="b">
         <v>0</v>
@@ -4012,68 +4045,62 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="4">
-        <v>42930.504861111112</v>
+        <v>42933.320138888892</v>
       </c>
       <c r="B53" s="4">
-        <v>42934.938888888886</v>
+        <v>42933.59375</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="25">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F53" s="25">
-        <v>88.8</v>
+        <v>0.78059999999999996</v>
       </c>
       <c r="G53" s="25">
-        <v>88.74</v>
-      </c>
-      <c r="H53" s="26">
-        <v>2.1100000000000001E-2</v>
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="H53" s="30">
+        <v>-0.20200000000000001</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K53" s="25">
-        <v>1.51</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>70</v>
-      </c>
+        <v>1.65</v>
+      </c>
+      <c r="L53" s="12"/>
       <c r="M53" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P53" s="27"/>
-      <c r="Q53" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R53" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S53" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T53" s="46">
-        <v>630</v>
-      </c>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="S53" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" s="29"/>
       <c r="U53" s="46" t="s">
         <v>29</v>
       </c>
       <c r="V53" s="46">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W53" s="46" t="b">
         <v>0</v>
@@ -4084,62 +4111,64 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="4">
-        <v>42933.320138888892</v>
+        <v>42935.321527777778</v>
       </c>
       <c r="B54" s="4">
-        <v>42933.59375</v>
+        <v>42936.53125</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E54" s="25">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F54" s="25">
-        <v>0.78059999999999996</v>
+        <v>0.95569999999999999</v>
       </c>
       <c r="G54" s="25">
-        <v>0.78339999999999999</v>
-      </c>
-      <c r="H54" s="30">
-        <v>-0.20200000000000001</v>
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="H54" s="26">
+        <v>0.3216</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K54" s="25">
-        <v>1.65</v>
-      </c>
-      <c r="L54" s="12"/>
+        <v>1.45</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="M54" s="12" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P54" s="27"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="S54" s="45" t="b">
-        <v>0</v>
-      </c>
+      <c r="Q54" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="27"/>
       <c r="T54" s="29"/>
       <c r="U54" s="46" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V54" s="46">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="W54" s="46" t="b">
         <v>0</v>
@@ -4150,56 +4179,56 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="4">
-        <v>42935.321527777778</v>
+        <v>42940.604861111111</v>
       </c>
       <c r="B55" s="4">
-        <v>42936.53125</v>
+        <v>42941.538888888892</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="25">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F55" s="25">
-        <v>0.95569999999999999</v>
+        <v>144.61000000000001</v>
       </c>
       <c r="G55" s="25">
-        <v>0.96109999999999995</v>
+        <v>145.55000000000001</v>
       </c>
       <c r="H55" s="26">
-        <v>0.3216</v>
+        <v>0.31030000000000002</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="K55" s="25">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P55" s="27"/>
       <c r="Q55" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="R55" s="12" t="s">
-        <v>20</v>
+        <v>113</v>
+      </c>
+      <c r="R55" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="S55" s="27"/>
       <c r="T55" s="29"/>
@@ -4207,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="V55" s="46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W55" s="46" t="b">
         <v>0</v>
@@ -4218,126 +4247,118 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="4">
-        <v>42940.604861111111</v>
+        <v>42940.964583333334</v>
       </c>
       <c r="B56" s="4">
-        <v>42941.538888888892</v>
+        <v>42942.792361111111</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E56" s="25">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F56" s="25">
-        <v>144.61000000000001</v>
+        <v>0.74180000000000001</v>
       </c>
       <c r="G56" s="25">
-        <v>145.55000000000001</v>
-      </c>
-      <c r="H56" s="26">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>16</v>
-      </c>
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="H56" s="30">
+        <v>-0.20449999999999999</v>
+      </c>
+      <c r="I56" s="27"/>
       <c r="J56" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K56" s="25">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="L56" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M56" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M56" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="N56" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P56" s="27"/>
       <c r="Q56" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="R56" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="S56" s="27"/>
+        <v>121</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="T56" s="29"/>
-      <c r="U56" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="V56" s="46">
-        <v>15</v>
-      </c>
-      <c r="W56" s="46" t="b">
-        <v>0</v>
-      </c>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
       <c r="X56" s="29"/>
       <c r="Y56" s="29"/>
       <c r="Z56" s="29"/>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="4">
-        <v>42940.964583333334</v>
+        <v>42944.352083333331</v>
       </c>
       <c r="B57" s="4">
-        <v>42942.792361111111</v>
+        <v>42944.648611111108</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="25">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F57" s="25">
-        <v>0.74180000000000001</v>
+        <v>1.2531000000000001</v>
       </c>
       <c r="G57" s="25">
-        <v>0.74590000000000001</v>
-      </c>
-      <c r="H57" s="30">
-        <v>-0.20449999999999999</v>
+        <v>1.2422</v>
+      </c>
+      <c r="H57" s="26">
+        <v>0.44829999999999998</v>
       </c>
       <c r="I57" s="27"/>
       <c r="J57" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K57" s="25">
-        <v>1.5</v>
+        <v>2.37</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P57" s="27"/>
       <c r="Q57" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R57" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S57" s="12" t="s">
-        <v>101</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S57" s="27"/>
       <c r="T57" s="29"/>
       <c r="U57" s="29"/>
       <c r="V57" s="29"/>
@@ -4348,57 +4369,59 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="4">
-        <v>42944.352083333331</v>
+        <v>42948.668055555558</v>
       </c>
       <c r="B58" s="4">
-        <v>42944.648611111108</v>
+        <v>42949.190972222219</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="25">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F58" s="25">
-        <v>1.2531000000000001</v>
+        <v>130.08000000000001</v>
       </c>
       <c r="G58" s="25">
-        <v>1.2422</v>
-      </c>
-      <c r="H58" s="26">
-        <v>0.44829999999999998</v>
+        <v>130.65</v>
+      </c>
+      <c r="H58" s="30">
+        <v>-0.20380000000000001</v>
       </c>
       <c r="I58" s="27"/>
       <c r="J58" s="12" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K58" s="25">
-        <v>2.37</v>
+        <v>1.89</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P58" s="27"/>
-      <c r="Q58" s="12" t="s">
+      <c r="Q58" s="12"/>
+      <c r="R58" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="R58" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S58" s="27"/>
-      <c r="T58" s="29"/>
+      <c r="S58" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" s="46">
+        <v>740</v>
+      </c>
       <c r="U58" s="29"/>
       <c r="V58" s="29"/>
       <c r="W58" s="29"/>
@@ -4407,91 +4430,99 @@
       <c r="Z58" s="29"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="4">
-        <v>42948.668055555558</v>
-      </c>
-      <c r="B59" s="4">
-        <v>42949.190972222219</v>
+      <c r="A59" s="48">
+        <v>42950.324999999997</v>
+      </c>
+      <c r="B59" s="48">
+        <v>42954.345138888886</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="25">
-        <v>52</v>
-      </c>
-      <c r="F59" s="25">
-        <v>130.08000000000001</v>
-      </c>
-      <c r="G59" s="25">
-        <v>130.65</v>
-      </c>
-      <c r="H59" s="30">
-        <v>-0.20380000000000001</v>
-      </c>
-      <c r="I59" s="27"/>
+      <c r="E59" s="12">
+        <v>104</v>
+      </c>
+      <c r="F59" s="12">
+        <v>1.0709</v>
+      </c>
+      <c r="G59" s="12">
+        <v>1.0747</v>
+      </c>
+      <c r="H59" s="49">
+        <v>-0.22869999999999999</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="J59" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K59" s="25">
-        <v>1.89</v>
+        <v>13</v>
+      </c>
+      <c r="K59" s="12">
+        <v>1.48</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P59" s="27"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="45" t="s">
+      <c r="Q59" s="12" t="s">
         <v>127</v>
       </c>
+      <c r="R59" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="S59" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" s="29"/>
+      <c r="U59" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="V59" s="46">
+        <v>10</v>
+      </c>
+      <c r="W59" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="T59" s="46">
-        <v>740</v>
-      </c>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
       <c r="X59" s="29"/>
       <c r="Y59" s="29"/>
       <c r="Z59" s="29"/>
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="48">
-        <v>42950.324999999997</v>
+        <v>42951.755555555559</v>
       </c>
       <c r="B60" s="48">
-        <v>42954.345138888886</v>
+        <v>42954.579861111109</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="12">
-        <v>104</v>
+      <c r="E60" s="25">
+        <v>50</v>
       </c>
       <c r="F60" s="12">
-        <v>1.0709</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="G60" s="12">
-        <v>1.0747</v>
+        <v>0.90549999999999997</v>
       </c>
       <c r="H60" s="49">
-        <v>-0.22869999999999999</v>
+        <v>-0.19750000000000001</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>16</v>
@@ -4499,27 +4530,27 @@
       <c r="J60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="12">
-        <v>1.48</v>
+      <c r="K60" s="25">
+        <v>1.51</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P60" s="27"/>
-      <c r="Q60" s="12" t="s">
+      <c r="Q60" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="R60" s="12" t="s">
-        <v>20</v>
+      <c r="R60" s="45" t="s">
+        <v>129</v>
       </c>
       <c r="S60" s="12" t="b">
         <v>0</v>
@@ -4529,77 +4560,79 @@
         <v>17</v>
       </c>
       <c r="V60" s="46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W60" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="29"/>
       <c r="Y60" s="29"/>
       <c r="Z60" s="29"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="48">
-        <v>42951.755555555559</v>
-      </c>
-      <c r="B61" s="48">
-        <v>42954.579861111109</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="12" t="s">
+      <c r="A61" s="51">
+        <v>42955.320138888892</v>
+      </c>
+      <c r="B61" s="51">
+        <v>42956.606249999997</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="25">
-        <v>50</v>
-      </c>
-      <c r="F61" s="12">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="G61" s="12">
-        <v>0.90549999999999997</v>
-      </c>
-      <c r="H61" s="49">
-        <v>-0.19750000000000001</v>
-      </c>
-      <c r="I61" s="12" t="s">
+      <c r="E61" s="52">
+        <v>54</v>
+      </c>
+      <c r="F61" s="52">
+        <v>1.266</v>
+      </c>
+      <c r="G61" s="52">
+        <v>1.2722</v>
+      </c>
+      <c r="H61" s="53">
+        <v>-0.2026</v>
+      </c>
+      <c r="I61" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="25">
-        <v>1.51</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M61" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="N61" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O61" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="R61" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="S61" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="T61" s="29"/>
+      <c r="J61" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="L61" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="N61" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O61" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R61" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61" s="46">
+        <v>559</v>
+      </c>
       <c r="U61" s="46" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="V61" s="46">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="W61" s="46" t="b">
         <v>0</v>
@@ -4610,68 +4643,66 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="51">
-        <v>42955.320138888892</v>
+        <v>42955.968055555553</v>
       </c>
       <c r="B62" s="51">
-        <v>42956.606249999997</v>
+        <v>42958.563194444447</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D62" s="52" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="52">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F62" s="52">
-        <v>1.266</v>
+        <v>0.90369999999999995</v>
       </c>
       <c r="G62" s="52">
-        <v>1.2722</v>
+        <v>0.90880000000000005</v>
       </c>
       <c r="H62" s="53">
-        <v>-0.2026</v>
-      </c>
-      <c r="I62" s="46" t="s">
+        <v>-0.20080000000000001</v>
+      </c>
+      <c r="I62" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="46" t="s">
-        <v>19</v>
+      <c r="J62" s="52" t="s">
+        <v>22</v>
       </c>
       <c r="K62" s="46">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L62" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M62" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N62" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O62" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P62" s="29"/>
       <c r="Q62" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="R62" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R62" s="45" t="s">
         <v>20</v>
       </c>
       <c r="S62" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" s="29"/>
+      <c r="U62" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="V62" s="46">
         <v>1</v>
-      </c>
-      <c r="T62" s="46">
-        <v>559</v>
-      </c>
-      <c r="U62" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="V62" s="46">
-        <v>1.5</v>
       </c>
       <c r="W62" s="46" t="b">
         <v>0</v>
@@ -4682,60 +4713,48 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="51">
-        <v>42955.968055555553</v>
+        <v>42962.956250000003</v>
       </c>
       <c r="B63" s="51">
-        <v>42958.563194444447</v>
+        <v>42963.379166666666</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E63" s="52">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="F63" s="52">
-        <v>0.90369999999999995</v>
+        <v>0.78249999999999997</v>
       </c>
       <c r="G63" s="52">
-        <v>0.90880000000000005</v>
-      </c>
-      <c r="H63" s="53">
-        <v>-0.20080000000000001</v>
-      </c>
-      <c r="I63" s="52" t="s">
-        <v>16</v>
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="H63" s="54">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="I63" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="J63" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="46">
-        <v>1.55</v>
-      </c>
-      <c r="L63" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="M63" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="N63" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="O63" s="46" t="s">
-        <v>70</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K63" s="52">
+        <v>1.61</v>
+      </c>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
       <c r="P63" s="29"/>
-      <c r="Q63" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="R63" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="S63" s="46" t="b">
-        <v>0</v>
-      </c>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="S63" s="29"/>
       <c r="T63" s="29"/>
       <c r="U63" s="46" t="s">
         <v>17</v>
@@ -4744,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="W63" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63" s="29"/>
       <c r="Y63" s="29"/>
@@ -4752,37 +4771,35 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="51">
-        <v>42962.956250000003</v>
+        <v>42963.353472222225</v>
       </c>
       <c r="B64" s="51">
-        <v>42963.379166666666</v>
+        <v>42965.68472222222</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D64" s="52" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="52">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="F64" s="52">
-        <v>0.78249999999999997</v>
+        <v>1.2877000000000001</v>
       </c>
       <c r="G64" s="52">
-        <v>0.78580000000000005</v>
-      </c>
-      <c r="H64" s="54">
-        <v>0.31619999999999998</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>21</v>
-      </c>
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="H64" s="53">
+        <v>-0.2064</v>
+      </c>
+      <c r="I64" s="29"/>
       <c r="J64" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="52">
-        <v>1.61</v>
+      <c r="K64" s="46">
+        <v>1.75</v>
       </c>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
@@ -4790,30 +4807,32 @@
       <c r="O64" s="29"/>
       <c r="P64" s="29"/>
       <c r="Q64" s="29"/>
-      <c r="R64" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
+      <c r="R64" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="S64" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T64" s="46">
+        <v>560</v>
+      </c>
       <c r="U64" s="46" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="V64" s="46">
-        <v>1</v>
-      </c>
-      <c r="W64" s="46" t="b">
-        <v>1</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="W64" s="29"/>
       <c r="X64" s="29"/>
       <c r="Y64" s="29"/>
       <c r="Z64" s="29"/>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="51">
-        <v>42963.353472222225</v>
+        <v>42964.664583333331</v>
       </c>
       <c r="B65" s="51">
-        <v>42965.68472222222</v>
+        <v>42969.638888888891</v>
       </c>
       <c r="C65" s="52" t="s">
         <v>131</v>
@@ -4822,23 +4841,23 @@
         <v>12</v>
       </c>
       <c r="E65" s="52">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F65" s="52">
-        <v>1.2877000000000001</v>
+        <v>1.6284000000000001</v>
       </c>
       <c r="G65" s="52">
-        <v>1.2829999999999999</v>
+        <v>1.6173</v>
       </c>
       <c r="H65" s="53">
-        <v>-0.2064</v>
+        <v>-0.22570000000000001</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="52" t="s">
         <v>19</v>
       </c>
       <c r="K65" s="46">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
@@ -4849,18 +4868,10 @@
       <c r="R65" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="S65" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="T65" s="46">
-        <v>560</v>
-      </c>
-      <c r="U65" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="V65" s="46">
-        <v>2.5</v>
-      </c>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
       <c r="W65" s="29"/>
       <c r="X65" s="29"/>
       <c r="Y65" s="29"/>
@@ -4868,34 +4879,36 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="51">
-        <v>42964.664583333331</v>
+        <v>42968.377083333333</v>
       </c>
       <c r="B66" s="51">
-        <v>42969.638888888891</v>
+        <v>42970.050694444442</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E66" s="52">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F66" s="52">
-        <v>1.6284000000000001</v>
-      </c>
-      <c r="G66" s="52">
-        <v>1.6173</v>
-      </c>
-      <c r="H66" s="53">
-        <v>-0.22570000000000001</v>
-      </c>
-      <c r="I66" s="29"/>
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="G66" s="46">
+        <v>0.7258</v>
+      </c>
+      <c r="H66" s="54">
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="I66" s="46" t="s">
+        <v>21</v>
+      </c>
       <c r="J66" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" s="46">
+        <v>13</v>
+      </c>
+      <c r="K66" s="52">
         <v>1.51</v>
       </c>
       <c r="L66" s="29"/>
@@ -4904,51 +4917,57 @@
       <c r="O66" s="29"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
-      <c r="R66" s="46" t="s">
-        <v>33</v>
+      <c r="R66" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="S66" s="29"/>
       <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
+      <c r="U66" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="V66" s="46">
+        <v>11</v>
+      </c>
+      <c r="W66" s="46" t="b">
+        <v>1</v>
+      </c>
       <c r="X66" s="29"/>
       <c r="Y66" s="29"/>
       <c r="Z66" s="29"/>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="51">
-        <v>42968.377083333333</v>
+        <v>42970.688194444447</v>
       </c>
       <c r="B67" s="51">
-        <v>42970.050694444442</v>
+        <v>42971.306944444441</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E67" s="52">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="F67" s="52">
-        <v>0.73080000000000001</v>
-      </c>
-      <c r="G67" s="46">
-        <v>0.7258</v>
-      </c>
-      <c r="H67" s="54">
-        <v>0.29620000000000002</v>
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="G67" s="52">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H67" s="53">
+        <v>-0.2094</v>
       </c>
       <c r="I67" s="46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J67" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="52">
-        <v>1.51</v>
+        <v>27</v>
+      </c>
+      <c r="K67" s="46">
+        <v>1.97</v>
       </c>
       <c r="L67" s="29"/>
       <c r="M67" s="29"/>
@@ -4956,16 +4975,20 @@
       <c r="O67" s="29"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
-      <c r="R67" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
+      <c r="R67" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="S67" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67" s="46">
+        <v>130</v>
+      </c>
       <c r="U67" s="46" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="V67" s="46">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="W67" s="46" t="b">
         <v>1</v>
@@ -4976,58 +4999,56 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="51">
-        <v>42970.688194444447</v>
+        <v>42975.828472222223</v>
       </c>
       <c r="B68" s="51">
-        <v>42971.306944444441</v>
+        <v>42975.980555555558</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E68" s="52">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F68" s="52">
-        <v>0.79020000000000001</v>
+        <v>87.33</v>
       </c>
       <c r="G68" s="52">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="H68" s="53">
-        <v>-0.2094</v>
+        <v>86.62</v>
+      </c>
+      <c r="H68" s="54">
+        <v>0.26190000000000002</v>
       </c>
       <c r="I68" s="46" t="s">
         <v>16</v>
       </c>
       <c r="J68" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="K68" s="46">
-        <v>1.97</v>
+        <v>22</v>
+      </c>
+      <c r="K68" s="52">
+        <v>1.63</v>
       </c>
       <c r="L68" s="29"/>
       <c r="M68" s="29"/>
       <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
+      <c r="O68" s="46">
+        <v>87.89</v>
+      </c>
       <c r="P68" s="29"/>
       <c r="Q68" s="29"/>
-      <c r="R68" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="S68" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="T68" s="46">
-        <v>130</v>
-      </c>
+      <c r="R68" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
       <c r="U68" s="46" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V68" s="46">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="W68" s="46" t="b">
         <v>1</v>
@@ -5038,56 +5059,60 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="51">
-        <v>42975.828472222223</v>
+        <v>42975.96597222222</v>
       </c>
       <c r="B69" s="51">
-        <v>42975.980555555558</v>
+        <v>42976.379166666666</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D69" s="52" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="52">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F69" s="52">
-        <v>87.33</v>
+        <v>129.97999999999999</v>
       </c>
       <c r="G69" s="52">
-        <v>86.62</v>
-      </c>
-      <c r="H69" s="54">
-        <v>0.26190000000000002</v>
+        <v>130.84</v>
+      </c>
+      <c r="H69" s="53">
+        <v>-0.2016</v>
       </c>
       <c r="I69" s="46" t="s">
         <v>16</v>
       </c>
       <c r="J69" s="52" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K69" s="52">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
       <c r="N69" s="29"/>
-      <c r="O69" s="46">
-        <v>87.89</v>
+      <c r="O69" s="52">
+        <v>130.84</v>
       </c>
       <c r="P69" s="29"/>
       <c r="Q69" s="29"/>
       <c r="R69" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
+        <v>132</v>
+      </c>
+      <c r="S69" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T69" s="46">
+        <v>850</v>
+      </c>
       <c r="U69" s="46" t="s">
         <v>17</v>
       </c>
       <c r="V69" s="46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W69" s="46" t="b">
         <v>1</v>
@@ -5098,10 +5123,10 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="51">
-        <v>42975.96597222222</v>
+        <v>42978.512499999997</v>
       </c>
       <c r="B70" s="51">
-        <v>42976.379166666666</v>
+        <v>42983.67291666667</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>23</v>
@@ -5110,48 +5135,42 @@
         <v>18</v>
       </c>
       <c r="E70" s="52">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F70" s="52">
-        <v>129.97999999999999</v>
+        <v>130.94</v>
       </c>
       <c r="G70" s="52">
-        <v>130.84</v>
-      </c>
-      <c r="H70" s="53">
-        <v>-0.2016</v>
+        <v>129.71</v>
+      </c>
+      <c r="H70" s="54">
+        <v>0.30309999999999998</v>
       </c>
       <c r="I70" s="46" t="s">
         <v>16</v>
       </c>
       <c r="J70" s="52" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K70" s="52">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
       <c r="N70" s="29"/>
-      <c r="O70" s="52">
-        <v>130.84</v>
-      </c>
+      <c r="O70" s="29"/>
       <c r="P70" s="29"/>
       <c r="Q70" s="29"/>
       <c r="R70" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="S70" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="T70" s="46">
-        <v>850</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
       <c r="U70" s="46" t="s">
         <v>17</v>
       </c>
       <c r="V70" s="46">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="W70" s="46" t="b">
         <v>1</v>
@@ -5162,54 +5181,58 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="51">
-        <v>42978.512499999997</v>
+        <v>42984.519444444442</v>
       </c>
       <c r="B71" s="51">
-        <v>42983.67291666667</v>
+        <v>42985.407638888886</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E71" s="52">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F71" s="52">
-        <v>130.94</v>
+        <v>0.95579999999999998</v>
       </c>
       <c r="G71" s="52">
-        <v>129.71</v>
-      </c>
-      <c r="H71" s="54">
-        <v>0.30309999999999998</v>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="H71" s="53">
+        <v>-0.20830000000000001</v>
       </c>
       <c r="I71" s="46" t="s">
         <v>16</v>
       </c>
       <c r="J71" s="52" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K71" s="52">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
+      <c r="M71" s="46" t="s">
+        <v>133</v>
+      </c>
       <c r="N71" s="29"/>
       <c r="O71" s="29"/>
       <c r="P71" s="29"/>
       <c r="Q71" s="29"/>
       <c r="R71" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="S71" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="S71" s="46" t="b">
+        <v>0</v>
+      </c>
       <c r="T71" s="29"/>
       <c r="U71" s="46" t="s">
         <v>17</v>
       </c>
       <c r="V71" s="46">
-        <v>14</v>
+        <v>2.5</v>
       </c>
       <c r="W71" s="46" t="b">
         <v>1</v>
@@ -5220,61 +5243,57 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="51">
-        <v>42984.519444444442</v>
+        <v>42985.572916666664</v>
       </c>
       <c r="B72" s="51">
-        <v>42985.407638888886</v>
+        <v>42986.258333333331</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E72" s="52">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F72" s="52">
-        <v>0.95579999999999998</v>
+        <v>108.81</v>
       </c>
       <c r="G72" s="52">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="H72" s="53">
-        <v>-0.20830000000000001</v>
+        <v>107.74</v>
+      </c>
+      <c r="H72" s="54">
+        <v>0.36209999999999998</v>
       </c>
       <c r="I72" s="46" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J72" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" s="52">
-        <v>1.5</v>
+        <v>19</v>
+      </c>
+      <c r="K72" s="46">
+        <v>1.85</v>
       </c>
       <c r="L72" s="29"/>
-      <c r="M72" s="46" t="s">
-        <v>134</v>
-      </c>
+      <c r="M72" s="29"/>
       <c r="N72" s="29"/>
       <c r="O72" s="29"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
       <c r="R72" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="S72" s="46" t="b">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="S72" s="29"/>
       <c r="T72" s="29"/>
       <c r="U72" s="46" t="s">
         <v>17</v>
       </c>
       <c r="V72" s="46">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="W72" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X72" s="29"/>
       <c r="Y72" s="29"/>
@@ -5282,54 +5301,58 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="51">
-        <v>42985.572916666664</v>
+        <v>42989.102777777778</v>
       </c>
       <c r="B73" s="51">
-        <v>42986.258333333331</v>
+        <v>42990.395833333336</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="D73" s="52" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="52">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F73" s="52">
-        <v>108.81</v>
+        <v>1.3178000000000001</v>
       </c>
       <c r="G73" s="52">
-        <v>107.74</v>
-      </c>
-      <c r="H73" s="54">
-        <v>0.36209999999999998</v>
+        <v>1.3231999999999999</v>
+      </c>
+      <c r="H73" s="53">
+        <v>-0.2024</v>
       </c>
       <c r="I73" s="46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J73" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K73" s="46">
-        <v>1.85</v>
+      <c r="K73" s="52">
+        <v>1.81</v>
       </c>
       <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
+      <c r="M73" s="46" t="s">
+        <v>134</v>
+      </c>
       <c r="N73" s="29"/>
       <c r="O73" s="29"/>
       <c r="P73" s="29"/>
       <c r="Q73" s="29"/>
       <c r="R73" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="S73" s="29"/>
+        <v>135</v>
+      </c>
+      <c r="S73" s="46" t="b">
+        <v>0</v>
+      </c>
       <c r="T73" s="29"/>
       <c r="U73" s="46" t="s">
         <v>17</v>
       </c>
       <c r="V73" s="46">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="W73" s="46" t="b">
         <v>0</v>
@@ -5340,41 +5363,41 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="51">
-        <v>42989.102777777778</v>
+        <v>42989.50277777778</v>
       </c>
       <c r="B74" s="51">
-        <v>42990.395833333336</v>
+        <v>42990.398611111108</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D74" s="52" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="52">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F74" s="52">
-        <v>1.3178000000000001</v>
+        <v>1.599</v>
       </c>
       <c r="G74" s="52">
-        <v>1.3231999999999999</v>
+        <v>1.6057999999999999</v>
       </c>
       <c r="H74" s="53">
-        <v>-0.2024</v>
+        <v>-0.19</v>
       </c>
       <c r="I74" s="46" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J74" s="52" t="s">
         <v>19</v>
       </c>
       <c r="K74" s="52">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="L74" s="29"/>
       <c r="M74" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N74" s="29"/>
       <c r="O74" s="29"/>
@@ -5391,7 +5414,7 @@
         <v>17</v>
       </c>
       <c r="V74" s="46">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="W74" s="46" t="b">
         <v>0</v>
@@ -5402,149 +5425,151 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="51">
-        <v>42989.50277777778</v>
+        <v>42990.707638888889</v>
       </c>
       <c r="B75" s="51">
-        <v>42990.398611111108</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>92</v>
+        <v>42991.633333333331</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E75" s="52">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F75" s="52">
-        <v>1.599</v>
+        <v>0.80420000000000003</v>
       </c>
       <c r="G75" s="52">
-        <v>1.6057999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H75" s="53">
-        <v>-0.19</v>
-      </c>
-      <c r="I75" s="46" t="s">
-        <v>21</v>
-      </c>
+        <v>-0.20380000000000001</v>
+      </c>
+      <c r="I75" s="29"/>
       <c r="J75" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" s="52">
-        <v>1.89</v>
+        <v>56</v>
+      </c>
+      <c r="K75" s="46">
+        <v>1.54</v>
       </c>
       <c r="L75" s="29"/>
-      <c r="M75" s="46" t="s">
-        <v>135</v>
-      </c>
+      <c r="M75" s="29"/>
       <c r="N75" s="29"/>
       <c r="O75" s="29"/>
       <c r="P75" s="29"/>
       <c r="Q75" s="29"/>
       <c r="R75" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="S75" s="46" t="b">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S75" s="29"/>
       <c r="T75" s="29"/>
-      <c r="U75" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="V75" s="46">
-        <v>6</v>
-      </c>
-      <c r="W75" s="46" t="b">
-        <v>0</v>
-      </c>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
       <c r="X75" s="29"/>
       <c r="Y75" s="29"/>
       <c r="Z75" s="29"/>
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="51">
-        <v>42990.707638888889</v>
+        <v>42991.674305555556</v>
       </c>
       <c r="B76" s="51">
-        <v>42991.633333333331</v>
-      </c>
-      <c r="C76" s="46" t="s">
-        <v>30</v>
+        <v>42992.396527777775</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E76" s="52">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F76" s="52">
-        <v>0.80420000000000003</v>
+        <v>1.1476</v>
       </c>
       <c r="G76" s="52">
-        <v>0.8</v>
+        <v>1.1515</v>
       </c>
       <c r="H76" s="53">
-        <v>-0.20380000000000001</v>
-      </c>
-      <c r="I76" s="29"/>
+        <v>-0.19470000000000001</v>
+      </c>
+      <c r="I76" s="46" t="s">
+        <v>16</v>
+      </c>
       <c r="J76" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="K76" s="46">
-        <v>1.54</v>
+        <v>13</v>
+      </c>
+      <c r="K76" s="52">
+        <v>1.74</v>
       </c>
       <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
+      <c r="M76" s="46" t="s">
+        <v>137</v>
+      </c>
       <c r="N76" s="29"/>
       <c r="O76" s="29"/>
       <c r="P76" s="29"/>
       <c r="Q76" s="29"/>
       <c r="R76" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="S76" s="29"/>
-      <c r="T76" s="29"/>
-      <c r="U76" s="29"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="S76" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T76" s="46">
+        <v>1050</v>
+      </c>
+      <c r="U76" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="V76" s="46">
+        <v>6</v>
+      </c>
+      <c r="W76" s="46" t="b">
+        <v>1</v>
+      </c>
       <c r="X76" s="29"/>
       <c r="Y76" s="29"/>
       <c r="Z76" s="29"/>
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="51">
-        <v>42991.674305555556</v>
+        <v>42992.310416666667</v>
       </c>
       <c r="B77" s="51">
-        <v>42992.396527777775</v>
+        <v>42992.541666666664</v>
       </c>
       <c r="C77" s="52" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D77" s="52" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="52">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F77" s="52">
-        <v>1.1476</v>
+        <v>110.4</v>
       </c>
       <c r="G77" s="52">
-        <v>1.1515</v>
+        <v>110.75</v>
       </c>
       <c r="H77" s="53">
-        <v>-0.19470000000000001</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="I77" s="46" t="s">
         <v>16</v>
       </c>
       <c r="J77" s="52" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K77" s="52">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="L77" s="29"/>
       <c r="M77" s="46" t="s">
@@ -5555,253 +5580,227 @@
       <c r="P77" s="29"/>
       <c r="Q77" s="29"/>
       <c r="R77" s="46" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="S77" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="T77" s="46">
-        <v>1050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T77" s="29"/>
       <c r="U77" s="46" t="s">
         <v>17</v>
       </c>
       <c r="V77" s="46">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="W77" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X77" s="29"/>
       <c r="Y77" s="29"/>
       <c r="Z77" s="29"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="51">
-        <v>42992.310416666667</v>
-      </c>
-      <c r="B78" s="51">
-        <v>42992.541666666664</v>
-      </c>
-      <c r="C78" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="52">
-        <v>85</v>
-      </c>
-      <c r="F78" s="52">
-        <v>110.4</v>
-      </c>
-      <c r="G78" s="52">
-        <v>110.75</v>
-      </c>
-      <c r="H78" s="53">
-        <v>-0.20200000000000001</v>
-      </c>
-      <c r="I78" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" s="52" t="s">
+      <c r="A78" s="55">
+        <v>43006.630555555559</v>
+      </c>
+      <c r="B78" s="55">
+        <v>43010.362500000003</v>
+      </c>
+      <c r="C78" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="56">
+        <v>73</v>
+      </c>
+      <c r="F78" s="56">
+        <v>0.78346000000000005</v>
+      </c>
+      <c r="G78" s="56">
+        <v>0.77968000000000004</v>
+      </c>
+      <c r="H78" s="57">
+        <v>-0.20710000000000001</v>
+      </c>
+      <c r="J78" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="52">
-        <v>1.93</v>
-      </c>
-      <c r="L78" s="29"/>
-      <c r="M78" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="S78" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="T78" s="29"/>
-      <c r="U78" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="V78" s="46">
-        <v>1.5</v>
-      </c>
-      <c r="W78" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="X78" s="29"/>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="29"/>
+      <c r="K78" s="3">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="55">
-        <v>43006.630555555559</v>
+        <v>43004.95416666667</v>
       </c>
       <c r="B79" s="55">
-        <v>43010.362500000003</v>
+        <v>43010.720138888886</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D79" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="56">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F79" s="56">
-        <v>0.78346000000000005</v>
+        <v>80.953999999999994</v>
       </c>
       <c r="G79" s="56">
-        <v>0.77968000000000004</v>
-      </c>
-      <c r="H79" s="57">
-        <v>-0.20710000000000001</v>
+        <v>81.058000000000007</v>
+      </c>
+      <c r="H79" s="58">
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="J79" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K79" s="3">
-        <v>1.51</v>
+        <v>13</v>
+      </c>
+      <c r="K79" s="56">
+        <v>1.79</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="55">
-        <v>43004.95416666667</v>
+        <v>43005.319444444445</v>
       </c>
       <c r="B80" s="55">
-        <v>43010.720138888886</v>
+        <v>43013.38958333333</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="D80" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="56">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F80" s="56">
-        <v>80.953999999999994</v>
+        <v>0.87924000000000002</v>
       </c>
       <c r="G80" s="56">
-        <v>81.058000000000007</v>
+        <v>0.89173000000000002</v>
       </c>
       <c r="H80" s="58">
-        <v>3.9699999999999999E-2</v>
+        <v>0.47460000000000002</v>
       </c>
       <c r="J80" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="K80" s="56">
-        <v>1.79</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>141</v>
+      <c r="K80" s="3">
+        <v>1.95</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="55">
-        <v>43005.319444444445</v>
+        <v>43012.046527777777</v>
       </c>
       <c r="B81" s="55">
-        <v>43013.38958333333</v>
+        <v>43014.061111111114</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D81" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="56">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F81" s="56">
-        <v>0.87924000000000002</v>
+        <v>0.78398999999999996</v>
       </c>
       <c r="G81" s="56">
-        <v>0.89173000000000002</v>
-      </c>
-      <c r="H81" s="58">
-        <v>0.47460000000000002</v>
+        <v>0.77819000000000005</v>
+      </c>
+      <c r="H81" s="57">
+        <v>-0.2082</v>
       </c>
       <c r="J81" s="56" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K81" s="3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="55">
-        <v>43012.046527777777</v>
+        <v>43019.331944444442</v>
       </c>
       <c r="B82" s="55">
-        <v>43014.061111111114</v>
+        <v>43019.791666666664</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E82" s="56">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F82" s="56">
-        <v>0.78398999999999996</v>
+        <v>1.31881</v>
       </c>
       <c r="G82" s="56">
-        <v>0.77819000000000005</v>
+        <v>1.32297</v>
       </c>
       <c r="H82" s="57">
-        <v>-0.2082</v>
+        <v>-0.20449999999999999</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J82" s="56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K82" s="3">
-        <v>1.8</v>
+        <v>1.54</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="55">
-        <v>43019.331944444442</v>
+        <v>43017.314583333333</v>
       </c>
       <c r="B83" s="55">
-        <v>43019.791666666664</v>
+        <v>43020.500694444447</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E83" s="56">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F83" s="56">
-        <v>1.31881</v>
+        <v>147.75200000000001</v>
       </c>
       <c r="G83" s="56">
-        <v>1.32297</v>
-      </c>
-      <c r="H83" s="57">
-        <v>-0.20449999999999999</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>21</v>
+        <v>147.75399999999999</v>
+      </c>
+      <c r="H83" s="58">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J83" s="56" t="s">
         <v>19</v>
       </c>
       <c r="K83" s="3">
-        <v>1.54</v>
+        <v>3.2</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>39</v>
@@ -5809,172 +5808,146 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="55">
-        <v>43017.314583333333</v>
+        <v>43019.996527777781</v>
       </c>
       <c r="B84" s="55">
-        <v>43020.500694444447</v>
+        <v>43024.948611111111</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E84" s="56">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F84" s="56">
-        <v>147.75200000000001</v>
+        <v>1.0981799999999999</v>
       </c>
       <c r="G84" s="56">
-        <v>147.75399999999999</v>
+        <v>1.0913999999999999</v>
       </c>
       <c r="H84" s="58">
-        <v>5.0000000000000001E-4</v>
+        <v>0.30549999999999999</v>
       </c>
       <c r="J84" s="56" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K84" s="3">
-        <v>3.2</v>
+        <v>1.51</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R84" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="55">
-        <v>43019.996527777781</v>
+        <v>43024.473611111112</v>
       </c>
       <c r="B85" s="55">
-        <v>43024.948611111111</v>
+        <v>43026.527777777781</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D85" s="56" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="56">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F85" s="56">
-        <v>1.0981799999999999</v>
+        <v>87.98</v>
       </c>
       <c r="G85" s="56">
-        <v>1.0913999999999999</v>
-      </c>
-      <c r="H85" s="58">
-        <v>0.30549999999999999</v>
+        <v>88.361000000000004</v>
+      </c>
+      <c r="H85" s="57">
+        <v>-0.2001</v>
       </c>
       <c r="J85" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="3">
-        <v>1.51</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>143</v>
+        <v>13</v>
+      </c>
+      <c r="K85" s="56">
+        <v>1.81</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="55">
-        <v>43024.473611111112</v>
-      </c>
-      <c r="B86" s="55">
-        <v>43026.527777777781</v>
+        <v>43028.106249999997</v>
+      </c>
+      <c r="B86" s="59">
+        <v>43028.128472222219</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E86" s="56">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F86" s="56">
-        <v>87.98</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="G86" s="56">
-        <v>88.361000000000004</v>
-      </c>
-      <c r="H86" s="57">
-        <v>-0.2001</v>
+        <v>0.98336000000000001</v>
+      </c>
+      <c r="H86" s="58">
+        <v>0.30590000000000001</v>
       </c>
       <c r="J86" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="K86" s="56">
-        <v>1.81</v>
+        <v>19</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1.51</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="55">
-        <v>43028.106249999997</v>
-      </c>
-      <c r="B87" s="59">
-        <v>43028.128472222219</v>
+        <v>43034.392361111109</v>
+      </c>
+      <c r="B87" s="55">
+        <v>43035.09375</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E87" s="56">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F87" s="56">
-        <v>0.97709999999999997</v>
+        <v>1.32365</v>
       </c>
       <c r="G87" s="56">
-        <v>0.98336000000000001</v>
+        <v>1.31159</v>
       </c>
       <c r="H87" s="58">
-        <v>0.30590000000000001</v>
+        <v>0.48730000000000001</v>
       </c>
       <c r="J87" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K87" s="3">
-        <v>1.51</v>
+        <v>56</v>
+      </c>
+      <c r="K87" s="56">
+        <v>2.57</v>
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="55">
-        <v>43034.392361111109</v>
-      </c>
-      <c r="B88" s="55">
-        <v>43035.09375</v>
-      </c>
-      <c r="C88" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="56">
-        <v>53</v>
-      </c>
-      <c r="F88" s="56">
-        <v>1.32365</v>
-      </c>
-      <c r="G88" s="56">
-        <v>1.31159</v>
-      </c>
-      <c r="H88" s="58">
-        <v>0.48730000000000001</v>
-      </c>
-      <c r="J88" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K88" s="56">
-        <v>2.57</v>
-      </c>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="9"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="60"/>
@@ -5996,7 +5969,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="7"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
@@ -6010,18 +5983,15 @@
       <c r="G91" s="5"/>
       <c r="H91" s="7"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="60"/>
-      <c r="B92" s="60"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="7"/>
       <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="61"/>
@@ -6039,7 +6009,6 @@
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="61"/>
@@ -6048,6 +6017,7 @@
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="61"/>
@@ -6055,36 +6025,31 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="7"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="60"/>
-      <c r="B98" s="60"/>
+      <c r="B98" s="61"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="7"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="60"/>
+      <c r="A99" s="61"/>
       <c r="B99" s="61"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="61"/>
@@ -9862,16 +9827,13 @@
       <c r="A1043" s="61"/>
       <c r="B1043" s="61"/>
     </row>
-    <row r="1044" spans="1:2">
-      <c r="A1044" s="61"/>
-      <c r="B1044" s="61"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="M31:N31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
